--- a/1.1 Diccionario de datos Migración Colombia 2021.xlsx
+++ b/1.1 Diccionario de datos Migración Colombia 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Rodriguez\Documents\GitHub\Formularios_DS4A_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821FE67B-1241-4435-A081-2C8B370E3D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7133793-5C2D-4CB9-9D4E-49A80885B19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Categoría Migratoria</t>
   </si>
   <si>
-    <t>Entrada Salida (copia)</t>
-  </si>
-  <si>
     <t>País Destino Procedencia</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>Fac Exp Masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Observaciones </t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -158,13 +158,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -446,21 +446,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -470,21 +470,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -492,7 +497,7 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -500,7 +505,7 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -508,7 +513,7 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -516,7 +521,7 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -524,15 +529,15 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>121735</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -540,7 +545,7 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -548,15 +553,15 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>121735</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -564,7 +569,7 @@
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -572,7 +577,7 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -580,7 +585,7 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -588,15 +593,15 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>121735</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -604,7 +609,7 @@
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -612,15 +617,15 @@
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>121735</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -628,7 +633,7 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -636,7 +641,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>121735</v>
       </c>
     </row>
@@ -644,23 +649,15 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>121735</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>121735</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1">
         <v>121735</v>
       </c>
     </row>
